--- a/SuppXLS/Scen_opmode_UC.xlsx
+++ b/SuppXLS/Scen_opmode_UC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CDDBB4-A215-4533-8960-83D67A394AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA9368-F2A8-4CE2-B30C-DC6720ACA1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>process</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>~UC_T: LO</t>
+  </si>
+  <si>
+    <t>~UC_SETS: R_E : AllRegions</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:U70"/>
+  <dimension ref="B1:U70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -648,7 +651,12 @@
     <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.5">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
         <v>67</v>
       </c>
@@ -656,7 +664,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -712,7 +720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C5" t="str">
         <f>LEFT(R5,LEN(R5)-1)</f>
         <v>PWRCCGBTNXX00</v>
@@ -751,7 +759,7 @@
         <v>0.9</v>
       </c>
       <c r="O5" t="str">
-        <f>"op mode_"&amp;LEFT(R5,LEN(R5)-1)</f>
+        <f t="shared" ref="O5:O36" si="0">"op mode_"&amp;LEFT(R5,LEN(R5)-1)</f>
         <v>op mode_PWRCCGBTNXX00</v>
       </c>
       <c r="Q5" t="str">
@@ -772,9 +780,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C6" t="str">
-        <f t="shared" ref="C6:C69" si="0">LEFT(R6,LEN(R6)-1)</f>
+        <f t="shared" ref="C6:C69" si="1">LEFT(R6,LEN(R6)-1)</f>
         <v>PWRCCGBTNXX01</v>
       </c>
       <c r="D6">
@@ -811,18 +819,18 @@
         <v>0.9</v>
       </c>
       <c r="O6" t="str">
-        <f>"op mode_"&amp;LEFT(R6,LEN(R6)-1)</f>
+        <f t="shared" si="0"/>
         <v>op mode_PWRCCGBTNXX01</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q69" si="1">O6</f>
+        <f t="shared" ref="Q6:Q69" si="2">O6</f>
         <v>op mode_PWRCCGBTNXX01</v>
       </c>
       <c r="R6" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" ref="S6:S69" si="2">-1/31.536</f>
+        <f t="shared" ref="S6:S69" si="3">-1/31.536</f>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T6">
@@ -832,57 +840,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDEA00</v>
+      </c>
+      <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7">
+        <v>0.9</v>
+      </c>
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <v>0.9</v>
+      </c>
+      <c r="I7">
+        <v>0.9</v>
+      </c>
+      <c r="J7">
+        <v>0.9</v>
+      </c>
+      <c r="K7">
+        <v>0.9</v>
+      </c>
+      <c r="L7">
+        <v>0.9</v>
+      </c>
+      <c r="M7">
+        <v>0.9</v>
+      </c>
+      <c r="N7">
+        <v>0.9</v>
+      </c>
+      <c r="O7" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDEA00</v>
-      </c>
-      <c r="D7">
-        <v>0.9</v>
-      </c>
-      <c r="E7">
-        <v>0.9</v>
-      </c>
-      <c r="F7">
-        <v>0.9</v>
-      </c>
-      <c r="G7">
-        <v>0.9</v>
-      </c>
-      <c r="H7">
-        <v>0.9</v>
-      </c>
-      <c r="I7">
-        <v>0.9</v>
-      </c>
-      <c r="J7">
-        <v>0.9</v>
-      </c>
-      <c r="K7">
-        <v>0.9</v>
-      </c>
-      <c r="L7">
-        <v>0.9</v>
-      </c>
-      <c r="M7">
-        <v>0.9</v>
-      </c>
-      <c r="N7">
-        <v>0.9</v>
-      </c>
-      <c r="O7" t="str">
-        <f>"op mode_"&amp;LEFT(R7,LEN(R7)-1)</f>
         <v>op mode_PWRCCGINDEA00</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDEA00</v>
       </c>
       <c r="R7" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T7">
@@ -892,57 +900,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDEA01</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.9</v>
+      </c>
+      <c r="F8">
+        <v>0.9</v>
+      </c>
+      <c r="G8">
+        <v>0.9</v>
+      </c>
+      <c r="H8">
+        <v>0.9</v>
+      </c>
+      <c r="I8">
+        <v>0.9</v>
+      </c>
+      <c r="J8">
+        <v>0.9</v>
+      </c>
+      <c r="K8">
+        <v>0.9</v>
+      </c>
+      <c r="L8">
+        <v>0.9</v>
+      </c>
+      <c r="M8">
+        <v>0.9</v>
+      </c>
+      <c r="N8">
+        <v>0.9</v>
+      </c>
+      <c r="O8" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDEA01</v>
-      </c>
-      <c r="D8">
-        <v>0.9</v>
-      </c>
-      <c r="E8">
-        <v>0.9</v>
-      </c>
-      <c r="F8">
-        <v>0.9</v>
-      </c>
-      <c r="G8">
-        <v>0.9</v>
-      </c>
-      <c r="H8">
-        <v>0.9</v>
-      </c>
-      <c r="I8">
-        <v>0.9</v>
-      </c>
-      <c r="J8">
-        <v>0.9</v>
-      </c>
-      <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8">
-        <v>0.9</v>
-      </c>
-      <c r="M8">
-        <v>0.9</v>
-      </c>
-      <c r="N8">
-        <v>0.9</v>
-      </c>
-      <c r="O8" t="str">
-        <f>"op mode_"&amp;LEFT(R8,LEN(R8)-1)</f>
         <v>op mode_PWRCCGINDEA01</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDEA01</v>
       </c>
       <c r="R8" t="s">
         <v>4</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T8">
@@ -952,57 +960,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDNE00</v>
+      </c>
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.9</v>
+      </c>
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+      <c r="G9">
+        <v>0.9</v>
+      </c>
+      <c r="H9">
+        <v>0.9</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <v>0.9</v>
+      </c>
+      <c r="K9">
+        <v>0.9</v>
+      </c>
+      <c r="L9">
+        <v>0.9</v>
+      </c>
+      <c r="M9">
+        <v>0.9</v>
+      </c>
+      <c r="N9">
+        <v>0.9</v>
+      </c>
+      <c r="O9" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDNE00</v>
-      </c>
-      <c r="D9">
-        <v>0.9</v>
-      </c>
-      <c r="E9">
-        <v>0.9</v>
-      </c>
-      <c r="F9">
-        <v>0.9</v>
-      </c>
-      <c r="G9">
-        <v>0.9</v>
-      </c>
-      <c r="H9">
-        <v>0.9</v>
-      </c>
-      <c r="I9">
-        <v>0.9</v>
-      </c>
-      <c r="J9">
-        <v>0.9</v>
-      </c>
-      <c r="K9">
-        <v>0.9</v>
-      </c>
-      <c r="L9">
-        <v>0.9</v>
-      </c>
-      <c r="M9">
-        <v>0.9</v>
-      </c>
-      <c r="N9">
-        <v>0.9</v>
-      </c>
-      <c r="O9" t="str">
-        <f>"op mode_"&amp;LEFT(R9,LEN(R9)-1)</f>
         <v>op mode_PWRCCGINDNE00</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDNE00</v>
       </c>
       <c r="R9" t="s">
         <v>5</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T9">
@@ -1012,57 +1020,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDNE01</v>
+      </c>
+      <c r="D10">
+        <v>0.9</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>0.9</v>
+      </c>
+      <c r="G10">
+        <v>0.9</v>
+      </c>
+      <c r="H10">
+        <v>0.9</v>
+      </c>
+      <c r="I10">
+        <v>0.9</v>
+      </c>
+      <c r="J10">
+        <v>0.9</v>
+      </c>
+      <c r="K10">
+        <v>0.9</v>
+      </c>
+      <c r="L10">
+        <v>0.9</v>
+      </c>
+      <c r="M10">
+        <v>0.9</v>
+      </c>
+      <c r="N10">
+        <v>0.9</v>
+      </c>
+      <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDNE01</v>
-      </c>
-      <c r="D10">
-        <v>0.9</v>
-      </c>
-      <c r="E10">
-        <v>0.9</v>
-      </c>
-      <c r="F10">
-        <v>0.9</v>
-      </c>
-      <c r="G10">
-        <v>0.9</v>
-      </c>
-      <c r="H10">
-        <v>0.9</v>
-      </c>
-      <c r="I10">
-        <v>0.9</v>
-      </c>
-      <c r="J10">
-        <v>0.9</v>
-      </c>
-      <c r="K10">
-        <v>0.9</v>
-      </c>
-      <c r="L10">
-        <v>0.9</v>
-      </c>
-      <c r="M10">
-        <v>0.9</v>
-      </c>
-      <c r="N10">
-        <v>0.9</v>
-      </c>
-      <c r="O10" t="str">
-        <f>"op mode_"&amp;LEFT(R10,LEN(R10)-1)</f>
         <v>op mode_PWRCCGINDNE01</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDNE01</v>
       </c>
       <c r="R10" t="s">
         <v>6</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T10">
@@ -1072,57 +1080,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDNO00</v>
+      </c>
+      <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>0.9</v>
+      </c>
+      <c r="F11">
+        <v>0.9</v>
+      </c>
+      <c r="G11">
+        <v>0.9</v>
+      </c>
+      <c r="H11">
+        <v>0.9</v>
+      </c>
+      <c r="I11">
+        <v>0.9</v>
+      </c>
+      <c r="J11">
+        <v>0.9</v>
+      </c>
+      <c r="K11">
+        <v>0.9</v>
+      </c>
+      <c r="L11">
+        <v>0.9</v>
+      </c>
+      <c r="M11">
+        <v>0.9</v>
+      </c>
+      <c r="N11">
+        <v>0.9</v>
+      </c>
+      <c r="O11" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDNO00</v>
-      </c>
-      <c r="D11">
-        <v>0.9</v>
-      </c>
-      <c r="E11">
-        <v>0.9</v>
-      </c>
-      <c r="F11">
-        <v>0.9</v>
-      </c>
-      <c r="G11">
-        <v>0.9</v>
-      </c>
-      <c r="H11">
-        <v>0.9</v>
-      </c>
-      <c r="I11">
-        <v>0.9</v>
-      </c>
-      <c r="J11">
-        <v>0.9</v>
-      </c>
-      <c r="K11">
-        <v>0.9</v>
-      </c>
-      <c r="L11">
-        <v>0.9</v>
-      </c>
-      <c r="M11">
-        <v>0.9</v>
-      </c>
-      <c r="N11">
-        <v>0.9</v>
-      </c>
-      <c r="O11" t="str">
-        <f>"op mode_"&amp;LEFT(R11,LEN(R11)-1)</f>
         <v>op mode_PWRCCGINDNO00</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDNO00</v>
       </c>
       <c r="R11" t="s">
         <v>7</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T11">
@@ -1132,57 +1140,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDNO01</v>
+      </c>
+      <c r="D12">
+        <v>0.9</v>
+      </c>
+      <c r="E12">
+        <v>0.9</v>
+      </c>
+      <c r="F12">
+        <v>0.9</v>
+      </c>
+      <c r="G12">
+        <v>0.9</v>
+      </c>
+      <c r="H12">
+        <v>0.9</v>
+      </c>
+      <c r="I12">
+        <v>0.9</v>
+      </c>
+      <c r="J12">
+        <v>0.9</v>
+      </c>
+      <c r="K12">
+        <v>0.9</v>
+      </c>
+      <c r="L12">
+        <v>0.9</v>
+      </c>
+      <c r="M12">
+        <v>0.9</v>
+      </c>
+      <c r="N12">
+        <v>0.9</v>
+      </c>
+      <c r="O12" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDNO01</v>
-      </c>
-      <c r="D12">
-        <v>0.9</v>
-      </c>
-      <c r="E12">
-        <v>0.9</v>
-      </c>
-      <c r="F12">
-        <v>0.9</v>
-      </c>
-      <c r="G12">
-        <v>0.9</v>
-      </c>
-      <c r="H12">
-        <v>0.9</v>
-      </c>
-      <c r="I12">
-        <v>0.9</v>
-      </c>
-      <c r="J12">
-        <v>0.9</v>
-      </c>
-      <c r="K12">
-        <v>0.9</v>
-      </c>
-      <c r="L12">
-        <v>0.9</v>
-      </c>
-      <c r="M12">
-        <v>0.9</v>
-      </c>
-      <c r="N12">
-        <v>0.9</v>
-      </c>
-      <c r="O12" t="str">
-        <f>"op mode_"&amp;LEFT(R12,LEN(R12)-1)</f>
         <v>op mode_PWRCCGINDNO01</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDNO01</v>
       </c>
       <c r="R12" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T12">
@@ -1192,57 +1200,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDSO00</v>
+      </c>
+      <c r="D13">
+        <v>0.9</v>
+      </c>
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13">
+        <v>0.9</v>
+      </c>
+      <c r="G13">
+        <v>0.9</v>
+      </c>
+      <c r="H13">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>0.9</v>
+      </c>
+      <c r="J13">
+        <v>0.9</v>
+      </c>
+      <c r="K13">
+        <v>0.9</v>
+      </c>
+      <c r="L13">
+        <v>0.9</v>
+      </c>
+      <c r="M13">
+        <v>0.9</v>
+      </c>
+      <c r="N13">
+        <v>0.9</v>
+      </c>
+      <c r="O13" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDSO00</v>
-      </c>
-      <c r="D13">
-        <v>0.9</v>
-      </c>
-      <c r="E13">
-        <v>0.9</v>
-      </c>
-      <c r="F13">
-        <v>0.9</v>
-      </c>
-      <c r="G13">
-        <v>0.9</v>
-      </c>
-      <c r="H13">
-        <v>0.9</v>
-      </c>
-      <c r="I13">
-        <v>0.9</v>
-      </c>
-      <c r="J13">
-        <v>0.9</v>
-      </c>
-      <c r="K13">
-        <v>0.9</v>
-      </c>
-      <c r="L13">
-        <v>0.9</v>
-      </c>
-      <c r="M13">
-        <v>0.9</v>
-      </c>
-      <c r="N13">
-        <v>0.9</v>
-      </c>
-      <c r="O13" t="str">
-        <f>"op mode_"&amp;LEFT(R13,LEN(R13)-1)</f>
         <v>op mode_PWRCCGINDSO00</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDSO00</v>
       </c>
       <c r="R13" t="s">
         <v>9</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T13">
@@ -1252,57 +1260,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDSO01</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+      <c r="F14">
+        <v>0.9</v>
+      </c>
+      <c r="G14">
+        <v>0.9</v>
+      </c>
+      <c r="H14">
+        <v>0.9</v>
+      </c>
+      <c r="I14">
+        <v>0.9</v>
+      </c>
+      <c r="J14">
+        <v>0.9</v>
+      </c>
+      <c r="K14">
+        <v>0.9</v>
+      </c>
+      <c r="L14">
+        <v>0.9</v>
+      </c>
+      <c r="M14">
+        <v>0.9</v>
+      </c>
+      <c r="N14">
+        <v>0.9</v>
+      </c>
+      <c r="O14" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDSO01</v>
-      </c>
-      <c r="D14">
-        <v>0.9</v>
-      </c>
-      <c r="E14">
-        <v>0.9</v>
-      </c>
-      <c r="F14">
-        <v>0.9</v>
-      </c>
-      <c r="G14">
-        <v>0.9</v>
-      </c>
-      <c r="H14">
-        <v>0.9</v>
-      </c>
-      <c r="I14">
-        <v>0.9</v>
-      </c>
-      <c r="J14">
-        <v>0.9</v>
-      </c>
-      <c r="K14">
-        <v>0.9</v>
-      </c>
-      <c r="L14">
-        <v>0.9</v>
-      </c>
-      <c r="M14">
-        <v>0.9</v>
-      </c>
-      <c r="N14">
-        <v>0.9</v>
-      </c>
-      <c r="O14" t="str">
-        <f>"op mode_"&amp;LEFT(R14,LEN(R14)-1)</f>
         <v>op mode_PWRCCGINDSO01</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDSO01</v>
       </c>
       <c r="R14" t="s">
         <v>10</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T14">
@@ -1312,57 +1320,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDWE00</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <v>0.9</v>
+      </c>
+      <c r="G15">
+        <v>0.9</v>
+      </c>
+      <c r="H15">
+        <v>0.9</v>
+      </c>
+      <c r="I15">
+        <v>0.9</v>
+      </c>
+      <c r="J15">
+        <v>0.9</v>
+      </c>
+      <c r="K15">
+        <v>0.9</v>
+      </c>
+      <c r="L15">
+        <v>0.9</v>
+      </c>
+      <c r="M15">
+        <v>0.9</v>
+      </c>
+      <c r="N15">
+        <v>0.9</v>
+      </c>
+      <c r="O15" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDWE00</v>
-      </c>
-      <c r="D15">
-        <v>0.9</v>
-      </c>
-      <c r="E15">
-        <v>0.9</v>
-      </c>
-      <c r="F15">
-        <v>0.9</v>
-      </c>
-      <c r="G15">
-        <v>0.9</v>
-      </c>
-      <c r="H15">
-        <v>0.9</v>
-      </c>
-      <c r="I15">
-        <v>0.9</v>
-      </c>
-      <c r="J15">
-        <v>0.9</v>
-      </c>
-      <c r="K15">
-        <v>0.9</v>
-      </c>
-      <c r="L15">
-        <v>0.9</v>
-      </c>
-      <c r="M15">
-        <v>0.9</v>
-      </c>
-      <c r="N15">
-        <v>0.9</v>
-      </c>
-      <c r="O15" t="str">
-        <f>"op mode_"&amp;LEFT(R15,LEN(R15)-1)</f>
         <v>op mode_PWRCCGINDWE00</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDWE00</v>
       </c>
       <c r="R15" t="s">
         <v>11</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T15">
@@ -1372,57 +1380,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.5">
       <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCGINDWE01</v>
+      </c>
+      <c r="D16">
+        <v>0.9</v>
+      </c>
+      <c r="E16">
+        <v>0.9</v>
+      </c>
+      <c r="F16">
+        <v>0.9</v>
+      </c>
+      <c r="G16">
+        <v>0.9</v>
+      </c>
+      <c r="H16">
+        <v>0.9</v>
+      </c>
+      <c r="I16">
+        <v>0.9</v>
+      </c>
+      <c r="J16">
+        <v>0.9</v>
+      </c>
+      <c r="K16">
+        <v>0.9</v>
+      </c>
+      <c r="L16">
+        <v>0.9</v>
+      </c>
+      <c r="M16">
+        <v>0.9</v>
+      </c>
+      <c r="N16">
+        <v>0.9</v>
+      </c>
+      <c r="O16" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCGINDWE01</v>
-      </c>
-      <c r="D16">
-        <v>0.9</v>
-      </c>
-      <c r="E16">
-        <v>0.9</v>
-      </c>
-      <c r="F16">
-        <v>0.9</v>
-      </c>
-      <c r="G16">
-        <v>0.9</v>
-      </c>
-      <c r="H16">
-        <v>0.9</v>
-      </c>
-      <c r="I16">
-        <v>0.9</v>
-      </c>
-      <c r="J16">
-        <v>0.9</v>
-      </c>
-      <c r="K16">
-        <v>0.9</v>
-      </c>
-      <c r="L16">
-        <v>0.9</v>
-      </c>
-      <c r="M16">
-        <v>0.9</v>
-      </c>
-      <c r="N16">
-        <v>0.9</v>
-      </c>
-      <c r="O16" t="str">
-        <f>"op mode_"&amp;LEFT(R16,LEN(R16)-1)</f>
         <v>op mode_PWRCCGINDWE01</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCGINDWE01</v>
       </c>
       <c r="R16" t="s">
         <v>12</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T16">
@@ -1434,55 +1442,55 @@
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCSBTNXX01</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
+      </c>
+      <c r="E17">
+        <v>0.9</v>
+      </c>
+      <c r="F17">
+        <v>0.9</v>
+      </c>
+      <c r="G17">
+        <v>0.9</v>
+      </c>
+      <c r="H17">
+        <v>0.9</v>
+      </c>
+      <c r="I17">
+        <v>0.9</v>
+      </c>
+      <c r="J17">
+        <v>0.9</v>
+      </c>
+      <c r="K17">
+        <v>0.9</v>
+      </c>
+      <c r="L17">
+        <v>0.9</v>
+      </c>
+      <c r="M17">
+        <v>0.9</v>
+      </c>
+      <c r="N17">
+        <v>0.9</v>
+      </c>
+      <c r="O17" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCSBTNXX01</v>
-      </c>
-      <c r="D17">
-        <v>0.9</v>
-      </c>
-      <c r="E17">
-        <v>0.9</v>
-      </c>
-      <c r="F17">
-        <v>0.9</v>
-      </c>
-      <c r="G17">
-        <v>0.9</v>
-      </c>
-      <c r="H17">
-        <v>0.9</v>
-      </c>
-      <c r="I17">
-        <v>0.9</v>
-      </c>
-      <c r="J17">
-        <v>0.9</v>
-      </c>
-      <c r="K17">
-        <v>0.9</v>
-      </c>
-      <c r="L17">
-        <v>0.9</v>
-      </c>
-      <c r="M17">
-        <v>0.9</v>
-      </c>
-      <c r="N17">
-        <v>0.9</v>
-      </c>
-      <c r="O17" t="str">
-        <f>"op mode_"&amp;LEFT(R17,LEN(R17)-1)</f>
         <v>op mode_PWRCCSBTNXX01</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCSBTNXX01</v>
       </c>
       <c r="R17" t="s">
         <v>13</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T17">
@@ -1494,55 +1502,55 @@
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCSINDEA01</v>
+      </c>
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
+        <v>0.9</v>
+      </c>
+      <c r="F18">
+        <v>0.9</v>
+      </c>
+      <c r="G18">
+        <v>0.9</v>
+      </c>
+      <c r="H18">
+        <v>0.9</v>
+      </c>
+      <c r="I18">
+        <v>0.9</v>
+      </c>
+      <c r="J18">
+        <v>0.9</v>
+      </c>
+      <c r="K18">
+        <v>0.9</v>
+      </c>
+      <c r="L18">
+        <v>0.9</v>
+      </c>
+      <c r="M18">
+        <v>0.9</v>
+      </c>
+      <c r="N18">
+        <v>0.9</v>
+      </c>
+      <c r="O18" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCSINDEA01</v>
-      </c>
-      <c r="D18">
-        <v>0.9</v>
-      </c>
-      <c r="E18">
-        <v>0.9</v>
-      </c>
-      <c r="F18">
-        <v>0.9</v>
-      </c>
-      <c r="G18">
-        <v>0.9</v>
-      </c>
-      <c r="H18">
-        <v>0.9</v>
-      </c>
-      <c r="I18">
-        <v>0.9</v>
-      </c>
-      <c r="J18">
-        <v>0.9</v>
-      </c>
-      <c r="K18">
-        <v>0.9</v>
-      </c>
-      <c r="L18">
-        <v>0.9</v>
-      </c>
-      <c r="M18">
-        <v>0.9</v>
-      </c>
-      <c r="N18">
-        <v>0.9</v>
-      </c>
-      <c r="O18" t="str">
-        <f>"op mode_"&amp;LEFT(R18,LEN(R18)-1)</f>
         <v>op mode_PWRCCSINDEA01</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCSINDEA01</v>
       </c>
       <c r="R18" t="s">
         <v>14</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T18">
@@ -1554,55 +1562,55 @@
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCSINDNE01</v>
+      </c>
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+      <c r="E19">
+        <v>0.9</v>
+      </c>
+      <c r="F19">
+        <v>0.9</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+      <c r="H19">
+        <v>0.9</v>
+      </c>
+      <c r="I19">
+        <v>0.9</v>
+      </c>
+      <c r="J19">
+        <v>0.9</v>
+      </c>
+      <c r="K19">
+        <v>0.9</v>
+      </c>
+      <c r="L19">
+        <v>0.9</v>
+      </c>
+      <c r="M19">
+        <v>0.9</v>
+      </c>
+      <c r="N19">
+        <v>0.9</v>
+      </c>
+      <c r="O19" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCSINDNE01</v>
-      </c>
-      <c r="D19">
-        <v>0.9</v>
-      </c>
-      <c r="E19">
-        <v>0.9</v>
-      </c>
-      <c r="F19">
-        <v>0.9</v>
-      </c>
-      <c r="G19">
-        <v>0.9</v>
-      </c>
-      <c r="H19">
-        <v>0.9</v>
-      </c>
-      <c r="I19">
-        <v>0.9</v>
-      </c>
-      <c r="J19">
-        <v>0.9</v>
-      </c>
-      <c r="K19">
-        <v>0.9</v>
-      </c>
-      <c r="L19">
-        <v>0.9</v>
-      </c>
-      <c r="M19">
-        <v>0.9</v>
-      </c>
-      <c r="N19">
-        <v>0.9</v>
-      </c>
-      <c r="O19" t="str">
-        <f>"op mode_"&amp;LEFT(R19,LEN(R19)-1)</f>
         <v>op mode_PWRCCSINDNE01</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCSINDNE01</v>
       </c>
       <c r="R19" t="s">
         <v>15</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T19">
@@ -1614,55 +1622,55 @@
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCSINDNO01</v>
+      </c>
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20">
+        <v>0.9</v>
+      </c>
+      <c r="F20">
+        <v>0.9</v>
+      </c>
+      <c r="G20">
+        <v>0.9</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>0.9</v>
+      </c>
+      <c r="K20">
+        <v>0.9</v>
+      </c>
+      <c r="L20">
+        <v>0.9</v>
+      </c>
+      <c r="M20">
+        <v>0.9</v>
+      </c>
+      <c r="N20">
+        <v>0.9</v>
+      </c>
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCSINDNO01</v>
-      </c>
-      <c r="D20">
-        <v>0.9</v>
-      </c>
-      <c r="E20">
-        <v>0.9</v>
-      </c>
-      <c r="F20">
-        <v>0.9</v>
-      </c>
-      <c r="G20">
-        <v>0.9</v>
-      </c>
-      <c r="H20">
-        <v>0.9</v>
-      </c>
-      <c r="I20">
-        <v>0.9</v>
-      </c>
-      <c r="J20">
-        <v>0.9</v>
-      </c>
-      <c r="K20">
-        <v>0.9</v>
-      </c>
-      <c r="L20">
-        <v>0.9</v>
-      </c>
-      <c r="M20">
-        <v>0.9</v>
-      </c>
-      <c r="N20">
-        <v>0.9</v>
-      </c>
-      <c r="O20" t="str">
-        <f>"op mode_"&amp;LEFT(R20,LEN(R20)-1)</f>
         <v>op mode_PWRCCSINDNO01</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCSINDNO01</v>
       </c>
       <c r="R20" t="s">
         <v>16</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T20">
@@ -1674,55 +1682,55 @@
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCSINDSO01</v>
+      </c>
+      <c r="D21">
+        <v>0.9</v>
+      </c>
+      <c r="E21">
+        <v>0.9</v>
+      </c>
+      <c r="F21">
+        <v>0.9</v>
+      </c>
+      <c r="G21">
+        <v>0.9</v>
+      </c>
+      <c r="H21">
+        <v>0.9</v>
+      </c>
+      <c r="I21">
+        <v>0.9</v>
+      </c>
+      <c r="J21">
+        <v>0.9</v>
+      </c>
+      <c r="K21">
+        <v>0.9</v>
+      </c>
+      <c r="L21">
+        <v>0.9</v>
+      </c>
+      <c r="M21">
+        <v>0.9</v>
+      </c>
+      <c r="N21">
+        <v>0.9</v>
+      </c>
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCSINDSO01</v>
-      </c>
-      <c r="D21">
-        <v>0.9</v>
-      </c>
-      <c r="E21">
-        <v>0.9</v>
-      </c>
-      <c r="F21">
-        <v>0.9</v>
-      </c>
-      <c r="G21">
-        <v>0.9</v>
-      </c>
-      <c r="H21">
-        <v>0.9</v>
-      </c>
-      <c r="I21">
-        <v>0.9</v>
-      </c>
-      <c r="J21">
-        <v>0.9</v>
-      </c>
-      <c r="K21">
-        <v>0.9</v>
-      </c>
-      <c r="L21">
-        <v>0.9</v>
-      </c>
-      <c r="M21">
-        <v>0.9</v>
-      </c>
-      <c r="N21">
-        <v>0.9</v>
-      </c>
-      <c r="O21" t="str">
-        <f>"op mode_"&amp;LEFT(R21,LEN(R21)-1)</f>
         <v>op mode_PWRCCSINDSO01</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCSINDSO01</v>
       </c>
       <c r="R21" t="s">
         <v>17</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T21">
@@ -1734,55 +1742,55 @@
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCCSINDWE01</v>
+      </c>
+      <c r="D22">
+        <v>0.9</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
+        <v>0.9</v>
+      </c>
+      <c r="G22">
+        <v>0.9</v>
+      </c>
+      <c r="H22">
+        <v>0.9</v>
+      </c>
+      <c r="I22">
+        <v>0.9</v>
+      </c>
+      <c r="J22">
+        <v>0.9</v>
+      </c>
+      <c r="K22">
+        <v>0.9</v>
+      </c>
+      <c r="L22">
+        <v>0.9</v>
+      </c>
+      <c r="M22">
+        <v>0.9</v>
+      </c>
+      <c r="N22">
+        <v>0.9</v>
+      </c>
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCCSINDWE01</v>
-      </c>
-      <c r="D22">
-        <v>0.9</v>
-      </c>
-      <c r="E22">
-        <v>0.9</v>
-      </c>
-      <c r="F22">
-        <v>0.9</v>
-      </c>
-      <c r="G22">
-        <v>0.9</v>
-      </c>
-      <c r="H22">
-        <v>0.9</v>
-      </c>
-      <c r="I22">
-        <v>0.9</v>
-      </c>
-      <c r="J22">
-        <v>0.9</v>
-      </c>
-      <c r="K22">
-        <v>0.9</v>
-      </c>
-      <c r="L22">
-        <v>0.9</v>
-      </c>
-      <c r="M22">
-        <v>0.9</v>
-      </c>
-      <c r="N22">
-        <v>0.9</v>
-      </c>
-      <c r="O22" t="str">
-        <f>"op mode_"&amp;LEFT(R22,LEN(R22)-1)</f>
         <v>op mode_PWRCCSINDWE01</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCCSINDWE01</v>
       </c>
       <c r="R22" t="s">
         <v>18</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T22">
@@ -1794,55 +1802,55 @@
     </row>
     <row r="23" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCOABTNXX01</v>
+      </c>
+      <c r="D23">
+        <v>0.9</v>
+      </c>
+      <c r="E23">
+        <v>0.9</v>
+      </c>
+      <c r="F23">
+        <v>0.9</v>
+      </c>
+      <c r="G23">
+        <v>0.9</v>
+      </c>
+      <c r="H23">
+        <v>0.9</v>
+      </c>
+      <c r="I23">
+        <v>0.9</v>
+      </c>
+      <c r="J23">
+        <v>0.9</v>
+      </c>
+      <c r="K23">
+        <v>0.9</v>
+      </c>
+      <c r="L23">
+        <v>0.9</v>
+      </c>
+      <c r="M23">
+        <v>0.9</v>
+      </c>
+      <c r="N23">
+        <v>0.9</v>
+      </c>
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCOABTNXX01</v>
-      </c>
-      <c r="D23">
-        <v>0.9</v>
-      </c>
-      <c r="E23">
-        <v>0.9</v>
-      </c>
-      <c r="F23">
-        <v>0.9</v>
-      </c>
-      <c r="G23">
-        <v>0.9</v>
-      </c>
-      <c r="H23">
-        <v>0.9</v>
-      </c>
-      <c r="I23">
-        <v>0.9</v>
-      </c>
-      <c r="J23">
-        <v>0.9</v>
-      </c>
-      <c r="K23">
-        <v>0.9</v>
-      </c>
-      <c r="L23">
-        <v>0.9</v>
-      </c>
-      <c r="M23">
-        <v>0.9</v>
-      </c>
-      <c r="N23">
-        <v>0.9</v>
-      </c>
-      <c r="O23" t="str">
-        <f>"op mode_"&amp;LEFT(R23,LEN(R23)-1)</f>
         <v>op mode_PWRCOABTNXX01</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOABTNXX01</v>
       </c>
       <c r="R23" t="s">
         <v>19</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T23">
@@ -1854,7 +1862,7 @@
     </row>
     <row r="24" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRCOAINDEA01</v>
       </c>
       <c r="D24">
@@ -1891,18 +1899,18 @@
         <v>0.25</v>
       </c>
       <c r="O24" t="str">
-        <f>"op mode_"&amp;LEFT(R24,LEN(R24)-1)</f>
+        <f t="shared" si="0"/>
         <v>op mode_PWRCOAINDEA01</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOAINDEA01</v>
       </c>
       <c r="R24" t="s">
         <v>20</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T24">
@@ -1914,7 +1922,7 @@
     </row>
     <row r="25" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRCOAINDNE01</v>
       </c>
       <c r="D25">
@@ -1951,18 +1959,18 @@
         <v>0.25</v>
       </c>
       <c r="O25" t="str">
-        <f>"op mode_"&amp;LEFT(R25,LEN(R25)-1)</f>
+        <f t="shared" si="0"/>
         <v>op mode_PWRCOAINDNE01</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOAINDNE01</v>
       </c>
       <c r="R25" t="s">
         <v>21</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T25">
@@ -1974,7 +1982,7 @@
     </row>
     <row r="26" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRCOAINDNO01</v>
       </c>
       <c r="D26">
@@ -2011,18 +2019,18 @@
         <v>0.25</v>
       </c>
       <c r="O26" t="str">
-        <f>"op mode_"&amp;LEFT(R26,LEN(R26)-1)</f>
+        <f t="shared" si="0"/>
         <v>op mode_PWRCOAINDNO01</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOAINDNO01</v>
       </c>
       <c r="R26" t="s">
         <v>22</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T26">
@@ -2034,7 +2042,7 @@
     </row>
     <row r="27" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRCOAINDSO01</v>
       </c>
       <c r="D27">
@@ -2071,18 +2079,18 @@
         <v>0.25</v>
       </c>
       <c r="O27" t="str">
-        <f>"op mode_"&amp;LEFT(R27,LEN(R27)-1)</f>
+        <f t="shared" si="0"/>
         <v>op mode_PWRCOAINDSO01</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOAINDSO01</v>
       </c>
       <c r="R27" t="s">
         <v>23</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T27">
@@ -2094,7 +2102,7 @@
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRCOAINDWE01</v>
       </c>
       <c r="D28">
@@ -2131,18 +2139,18 @@
         <v>0.5</v>
       </c>
       <c r="O28" t="str">
-        <f>"op mode_"&amp;LEFT(R28,LEN(R28)-1)</f>
+        <f t="shared" si="0"/>
         <v>op mode_PWRCOAINDWE01</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOAINDWE01</v>
       </c>
       <c r="R28" t="s">
         <v>24</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T28">
@@ -2154,55 +2162,55 @@
     </row>
     <row r="29" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCOGBTNXX01</v>
+      </c>
+      <c r="D29">
+        <v>0.8</v>
+      </c>
+      <c r="E29">
+        <v>0.8</v>
+      </c>
+      <c r="F29">
+        <v>0.8</v>
+      </c>
+      <c r="G29">
+        <v>0.8</v>
+      </c>
+      <c r="H29">
+        <v>0.8</v>
+      </c>
+      <c r="I29">
+        <v>0.8</v>
+      </c>
+      <c r="J29">
+        <v>0.8</v>
+      </c>
+      <c r="K29">
+        <v>0.8</v>
+      </c>
+      <c r="L29">
+        <v>0.8</v>
+      </c>
+      <c r="M29">
+        <v>0.8</v>
+      </c>
+      <c r="N29">
+        <v>0.8</v>
+      </c>
+      <c r="O29" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCOGBTNXX01</v>
-      </c>
-      <c r="D29">
-        <v>0.8</v>
-      </c>
-      <c r="E29">
-        <v>0.8</v>
-      </c>
-      <c r="F29">
-        <v>0.8</v>
-      </c>
-      <c r="G29">
-        <v>0.8</v>
-      </c>
-      <c r="H29">
-        <v>0.8</v>
-      </c>
-      <c r="I29">
-        <v>0.8</v>
-      </c>
-      <c r="J29">
-        <v>0.8</v>
-      </c>
-      <c r="K29">
-        <v>0.8</v>
-      </c>
-      <c r="L29">
-        <v>0.8</v>
-      </c>
-      <c r="M29">
-        <v>0.8</v>
-      </c>
-      <c r="N29">
-        <v>0.8</v>
-      </c>
-      <c r="O29" t="str">
-        <f>"op mode_"&amp;LEFT(R29,LEN(R29)-1)</f>
         <v>op mode_PWRCOGBTNXX01</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOGBTNXX01</v>
       </c>
       <c r="R29" t="s">
         <v>25</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T29">
@@ -2214,55 +2222,55 @@
     </row>
     <row r="30" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCOGINDEA01</v>
+      </c>
+      <c r="D30">
+        <v>0.8</v>
+      </c>
+      <c r="E30">
+        <v>0.8</v>
+      </c>
+      <c r="F30">
+        <v>0.8</v>
+      </c>
+      <c r="G30">
+        <v>0.8</v>
+      </c>
+      <c r="H30">
+        <v>0.8</v>
+      </c>
+      <c r="I30">
+        <v>0.8</v>
+      </c>
+      <c r="J30">
+        <v>0.8</v>
+      </c>
+      <c r="K30">
+        <v>0.8</v>
+      </c>
+      <c r="L30">
+        <v>0.8</v>
+      </c>
+      <c r="M30">
+        <v>0.8</v>
+      </c>
+      <c r="N30">
+        <v>0.8</v>
+      </c>
+      <c r="O30" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCOGINDEA01</v>
-      </c>
-      <c r="D30">
-        <v>0.8</v>
-      </c>
-      <c r="E30">
-        <v>0.8</v>
-      </c>
-      <c r="F30">
-        <v>0.8</v>
-      </c>
-      <c r="G30">
-        <v>0.8</v>
-      </c>
-      <c r="H30">
-        <v>0.8</v>
-      </c>
-      <c r="I30">
-        <v>0.8</v>
-      </c>
-      <c r="J30">
-        <v>0.8</v>
-      </c>
-      <c r="K30">
-        <v>0.8</v>
-      </c>
-      <c r="L30">
-        <v>0.8</v>
-      </c>
-      <c r="M30">
-        <v>0.8</v>
-      </c>
-      <c r="N30">
-        <v>0.8</v>
-      </c>
-      <c r="O30" t="str">
-        <f>"op mode_"&amp;LEFT(R30,LEN(R30)-1)</f>
         <v>op mode_PWRCOGINDEA01</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOGINDEA01</v>
       </c>
       <c r="R30" t="s">
         <v>26</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T30">
@@ -2274,55 +2282,55 @@
     </row>
     <row r="31" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCOGINDNE01</v>
+      </c>
+      <c r="D31">
+        <v>0.8</v>
+      </c>
+      <c r="E31">
+        <v>0.8</v>
+      </c>
+      <c r="F31">
+        <v>0.8</v>
+      </c>
+      <c r="G31">
+        <v>0.8</v>
+      </c>
+      <c r="H31">
+        <v>0.8</v>
+      </c>
+      <c r="I31">
+        <v>0.8</v>
+      </c>
+      <c r="J31">
+        <v>0.8</v>
+      </c>
+      <c r="K31">
+        <v>0.8</v>
+      </c>
+      <c r="L31">
+        <v>0.8</v>
+      </c>
+      <c r="M31">
+        <v>0.8</v>
+      </c>
+      <c r="N31">
+        <v>0.8</v>
+      </c>
+      <c r="O31" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCOGINDNE01</v>
-      </c>
-      <c r="D31">
-        <v>0.8</v>
-      </c>
-      <c r="E31">
-        <v>0.8</v>
-      </c>
-      <c r="F31">
-        <v>0.8</v>
-      </c>
-      <c r="G31">
-        <v>0.8</v>
-      </c>
-      <c r="H31">
-        <v>0.8</v>
-      </c>
-      <c r="I31">
-        <v>0.8</v>
-      </c>
-      <c r="J31">
-        <v>0.8</v>
-      </c>
-      <c r="K31">
-        <v>0.8</v>
-      </c>
-      <c r="L31">
-        <v>0.8</v>
-      </c>
-      <c r="M31">
-        <v>0.8</v>
-      </c>
-      <c r="N31">
-        <v>0.8</v>
-      </c>
-      <c r="O31" t="str">
-        <f>"op mode_"&amp;LEFT(R31,LEN(R31)-1)</f>
         <v>op mode_PWRCOGINDNE01</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOGINDNE01</v>
       </c>
       <c r="R31" t="s">
         <v>27</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T31">
@@ -2334,55 +2342,55 @@
     </row>
     <row r="32" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCOGINDNO01</v>
+      </c>
+      <c r="D32">
+        <v>0.8</v>
+      </c>
+      <c r="E32">
+        <v>0.8</v>
+      </c>
+      <c r="F32">
+        <v>0.8</v>
+      </c>
+      <c r="G32">
+        <v>0.8</v>
+      </c>
+      <c r="H32">
+        <v>0.8</v>
+      </c>
+      <c r="I32">
+        <v>0.8</v>
+      </c>
+      <c r="J32">
+        <v>0.8</v>
+      </c>
+      <c r="K32">
+        <v>0.8</v>
+      </c>
+      <c r="L32">
+        <v>0.8</v>
+      </c>
+      <c r="M32">
+        <v>0.8</v>
+      </c>
+      <c r="N32">
+        <v>0.8</v>
+      </c>
+      <c r="O32" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCOGINDNO01</v>
-      </c>
-      <c r="D32">
-        <v>0.8</v>
-      </c>
-      <c r="E32">
-        <v>0.8</v>
-      </c>
-      <c r="F32">
-        <v>0.8</v>
-      </c>
-      <c r="G32">
-        <v>0.8</v>
-      </c>
-      <c r="H32">
-        <v>0.8</v>
-      </c>
-      <c r="I32">
-        <v>0.8</v>
-      </c>
-      <c r="J32">
-        <v>0.8</v>
-      </c>
-      <c r="K32">
-        <v>0.8</v>
-      </c>
-      <c r="L32">
-        <v>0.8</v>
-      </c>
-      <c r="M32">
-        <v>0.8</v>
-      </c>
-      <c r="N32">
-        <v>0.8</v>
-      </c>
-      <c r="O32" t="str">
-        <f>"op mode_"&amp;LEFT(R32,LEN(R32)-1)</f>
         <v>op mode_PWRCOGINDNO01</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOGINDNO01</v>
       </c>
       <c r="R32" t="s">
         <v>28</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T32">
@@ -2394,55 +2402,55 @@
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCOGINDSO01</v>
+      </c>
+      <c r="D33">
+        <v>0.8</v>
+      </c>
+      <c r="E33">
+        <v>0.8</v>
+      </c>
+      <c r="F33">
+        <v>0.8</v>
+      </c>
+      <c r="G33">
+        <v>0.8</v>
+      </c>
+      <c r="H33">
+        <v>0.8</v>
+      </c>
+      <c r="I33">
+        <v>0.8</v>
+      </c>
+      <c r="J33">
+        <v>0.8</v>
+      </c>
+      <c r="K33">
+        <v>0.8</v>
+      </c>
+      <c r="L33">
+        <v>0.8</v>
+      </c>
+      <c r="M33">
+        <v>0.8</v>
+      </c>
+      <c r="N33">
+        <v>0.8</v>
+      </c>
+      <c r="O33" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCOGINDSO01</v>
-      </c>
-      <c r="D33">
-        <v>0.8</v>
-      </c>
-      <c r="E33">
-        <v>0.8</v>
-      </c>
-      <c r="F33">
-        <v>0.8</v>
-      </c>
-      <c r="G33">
-        <v>0.8</v>
-      </c>
-      <c r="H33">
-        <v>0.8</v>
-      </c>
-      <c r="I33">
-        <v>0.8</v>
-      </c>
-      <c r="J33">
-        <v>0.8</v>
-      </c>
-      <c r="K33">
-        <v>0.8</v>
-      </c>
-      <c r="L33">
-        <v>0.8</v>
-      </c>
-      <c r="M33">
-        <v>0.8</v>
-      </c>
-      <c r="N33">
-        <v>0.8</v>
-      </c>
-      <c r="O33" t="str">
-        <f>"op mode_"&amp;LEFT(R33,LEN(R33)-1)</f>
         <v>op mode_PWRCOGINDSO01</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOGINDSO01</v>
       </c>
       <c r="R33" t="s">
         <v>29</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T33">
@@ -2454,55 +2462,55 @@
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>PWRCOGINDWE01</v>
+      </c>
+      <c r="D34">
+        <v>0.8</v>
+      </c>
+      <c r="E34">
+        <v>0.8</v>
+      </c>
+      <c r="F34">
+        <v>0.8</v>
+      </c>
+      <c r="G34">
+        <v>0.8</v>
+      </c>
+      <c r="H34">
+        <v>0.8</v>
+      </c>
+      <c r="I34">
+        <v>0.8</v>
+      </c>
+      <c r="J34">
+        <v>0.8</v>
+      </c>
+      <c r="K34">
+        <v>0.8</v>
+      </c>
+      <c r="L34">
+        <v>0.8</v>
+      </c>
+      <c r="M34">
+        <v>0.8</v>
+      </c>
+      <c r="N34">
+        <v>0.8</v>
+      </c>
+      <c r="O34" t="str">
         <f t="shared" si="0"/>
-        <v>PWRCOGINDWE01</v>
-      </c>
-      <c r="D34">
-        <v>0.8</v>
-      </c>
-      <c r="E34">
-        <v>0.8</v>
-      </c>
-      <c r="F34">
-        <v>0.8</v>
-      </c>
-      <c r="G34">
-        <v>0.8</v>
-      </c>
-      <c r="H34">
-        <v>0.8</v>
-      </c>
-      <c r="I34">
-        <v>0.8</v>
-      </c>
-      <c r="J34">
-        <v>0.8</v>
-      </c>
-      <c r="K34">
-        <v>0.8</v>
-      </c>
-      <c r="L34">
-        <v>0.8</v>
-      </c>
-      <c r="M34">
-        <v>0.8</v>
-      </c>
-      <c r="N34">
-        <v>0.8</v>
-      </c>
-      <c r="O34" t="str">
-        <f>"op mode_"&amp;LEFT(R34,LEN(R34)-1)</f>
         <v>op mode_PWRCOGINDWE01</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRCOGINDWE01</v>
       </c>
       <c r="R34" t="s">
         <v>30</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T34">
@@ -2514,55 +2522,55 @@
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>PWROCGBTNXX00</v>
+      </c>
+      <c r="D35">
+        <v>0.9</v>
+      </c>
+      <c r="E35">
+        <v>0.9</v>
+      </c>
+      <c r="F35">
+        <v>0.9</v>
+      </c>
+      <c r="G35">
+        <v>0.9</v>
+      </c>
+      <c r="H35">
+        <v>0.9</v>
+      </c>
+      <c r="I35">
+        <v>0.9</v>
+      </c>
+      <c r="J35">
+        <v>0.9</v>
+      </c>
+      <c r="K35">
+        <v>0.9</v>
+      </c>
+      <c r="L35">
+        <v>0.9</v>
+      </c>
+      <c r="M35">
+        <v>0.9</v>
+      </c>
+      <c r="N35">
+        <v>0.9</v>
+      </c>
+      <c r="O35" t="str">
         <f t="shared" si="0"/>
-        <v>PWROCGBTNXX00</v>
-      </c>
-      <c r="D35">
-        <v>0.9</v>
-      </c>
-      <c r="E35">
-        <v>0.9</v>
-      </c>
-      <c r="F35">
-        <v>0.9</v>
-      </c>
-      <c r="G35">
-        <v>0.9</v>
-      </c>
-      <c r="H35">
-        <v>0.9</v>
-      </c>
-      <c r="I35">
-        <v>0.9</v>
-      </c>
-      <c r="J35">
-        <v>0.9</v>
-      </c>
-      <c r="K35">
-        <v>0.9</v>
-      </c>
-      <c r="L35">
-        <v>0.9</v>
-      </c>
-      <c r="M35">
-        <v>0.9</v>
-      </c>
-      <c r="N35">
-        <v>0.9</v>
-      </c>
-      <c r="O35" t="str">
-        <f>"op mode_"&amp;LEFT(R35,LEN(R35)-1)</f>
         <v>op mode_PWROCGBTNXX00</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGBTNXX00</v>
       </c>
       <c r="R35" t="s">
         <v>31</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T35">
@@ -2574,55 +2582,55 @@
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>PWROCGBTNXX01</v>
+      </c>
+      <c r="D36">
+        <v>0.9</v>
+      </c>
+      <c r="E36">
+        <v>0.9</v>
+      </c>
+      <c r="F36">
+        <v>0.9</v>
+      </c>
+      <c r="G36">
+        <v>0.9</v>
+      </c>
+      <c r="H36">
+        <v>0.9</v>
+      </c>
+      <c r="I36">
+        <v>0.9</v>
+      </c>
+      <c r="J36">
+        <v>0.9</v>
+      </c>
+      <c r="K36">
+        <v>0.9</v>
+      </c>
+      <c r="L36">
+        <v>0.9</v>
+      </c>
+      <c r="M36">
+        <v>0.9</v>
+      </c>
+      <c r="N36">
+        <v>0.9</v>
+      </c>
+      <c r="O36" t="str">
         <f t="shared" si="0"/>
-        <v>PWROCGBTNXX01</v>
-      </c>
-      <c r="D36">
-        <v>0.9</v>
-      </c>
-      <c r="E36">
-        <v>0.9</v>
-      </c>
-      <c r="F36">
-        <v>0.9</v>
-      </c>
-      <c r="G36">
-        <v>0.9</v>
-      </c>
-      <c r="H36">
-        <v>0.9</v>
-      </c>
-      <c r="I36">
-        <v>0.9</v>
-      </c>
-      <c r="J36">
-        <v>0.9</v>
-      </c>
-      <c r="K36">
-        <v>0.9</v>
-      </c>
-      <c r="L36">
-        <v>0.9</v>
-      </c>
-      <c r="M36">
-        <v>0.9</v>
-      </c>
-      <c r="N36">
-        <v>0.9</v>
-      </c>
-      <c r="O36" t="str">
-        <f>"op mode_"&amp;LEFT(R36,LEN(R36)-1)</f>
         <v>op mode_PWROCGBTNXX01</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGBTNXX01</v>
       </c>
       <c r="R36" t="s">
         <v>32</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T36">
@@ -2634,7 +2642,7 @@
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDEA00</v>
       </c>
       <c r="D37">
@@ -2671,18 +2679,18 @@
         <v>0.9</v>
       </c>
       <c r="O37" t="str">
-        <f>"op mode_"&amp;LEFT(R37,LEN(R37)-1)</f>
+        <f t="shared" ref="O37:O70" si="4">"op mode_"&amp;LEFT(R37,LEN(R37)-1)</f>
         <v>op mode_PWROCGINDEA00</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDEA00</v>
       </c>
       <c r="R37" t="s">
         <v>33</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T37">
@@ -2694,7 +2702,7 @@
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDEA01</v>
       </c>
       <c r="D38">
@@ -2731,18 +2739,18 @@
         <v>0.9</v>
       </c>
       <c r="O38" t="str">
-        <f>"op mode_"&amp;LEFT(R38,LEN(R38)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROCGINDEA01</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDEA01</v>
       </c>
       <c r="R38" t="s">
         <v>34</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T38">
@@ -2754,7 +2762,7 @@
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDNE00</v>
       </c>
       <c r="D39">
@@ -2791,18 +2799,18 @@
         <v>0.9</v>
       </c>
       <c r="O39" t="str">
-        <f>"op mode_"&amp;LEFT(R39,LEN(R39)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROCGINDNE00</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDNE00</v>
       </c>
       <c r="R39" t="s">
         <v>35</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T39">
@@ -2814,7 +2822,7 @@
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDNE01</v>
       </c>
       <c r="D40">
@@ -2851,18 +2859,18 @@
         <v>0.9</v>
       </c>
       <c r="O40" t="str">
-        <f>"op mode_"&amp;LEFT(R40,LEN(R40)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROCGINDNE01</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDNE01</v>
       </c>
       <c r="R40" t="s">
         <v>36</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T40">
@@ -2874,7 +2882,7 @@
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDNO00</v>
       </c>
       <c r="D41">
@@ -2911,18 +2919,18 @@
         <v>0.9</v>
       </c>
       <c r="O41" t="str">
-        <f>"op mode_"&amp;LEFT(R41,LEN(R41)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROCGINDNO00</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDNO00</v>
       </c>
       <c r="R41" t="s">
         <v>37</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T41">
@@ -2934,7 +2942,7 @@
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDNO01</v>
       </c>
       <c r="D42">
@@ -2971,18 +2979,18 @@
         <v>0.9</v>
       </c>
       <c r="O42" t="str">
-        <f>"op mode_"&amp;LEFT(R42,LEN(R42)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROCGINDNO01</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDNO01</v>
       </c>
       <c r="R42" t="s">
         <v>38</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T42">
@@ -2994,7 +3002,7 @@
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDSO00</v>
       </c>
       <c r="D43">
@@ -3031,18 +3039,18 @@
         <v>0.9</v>
       </c>
       <c r="O43" t="str">
-        <f>"op mode_"&amp;LEFT(R43,LEN(R43)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROCGINDSO00</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDSO00</v>
       </c>
       <c r="R43" t="s">
         <v>39</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T43">
@@ -3054,7 +3062,7 @@
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDSO01</v>
       </c>
       <c r="D44">
@@ -3091,18 +3099,18 @@
         <v>0.9</v>
       </c>
       <c r="O44" t="str">
-        <f>"op mode_"&amp;LEFT(R44,LEN(R44)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROCGINDSO01</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDSO01</v>
       </c>
       <c r="R44" t="s">
         <v>40</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T44">
@@ -3114,7 +3122,7 @@
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDWE00</v>
       </c>
       <c r="D45">
@@ -3151,18 +3159,18 @@
         <v>0.9</v>
       </c>
       <c r="O45" t="str">
-        <f>"op mode_"&amp;LEFT(R45,LEN(R45)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROCGINDWE00</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDWE00</v>
       </c>
       <c r="R45" t="s">
         <v>41</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T45">
@@ -3174,7 +3182,7 @@
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROCGINDWE01</v>
       </c>
       <c r="D46">
@@ -3211,18 +3219,18 @@
         <v>0.9</v>
       </c>
       <c r="O46" t="str">
-        <f>"op mode_"&amp;LEFT(R46,LEN(R46)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROCGINDWE01</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROCGINDWE01</v>
       </c>
       <c r="R46" t="s">
         <v>42</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T46">
@@ -3234,7 +3242,7 @@
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROILBTNXX01</v>
       </c>
       <c r="D47">
@@ -3271,18 +3279,18 @@
         <v>0.8</v>
       </c>
       <c r="O47" t="str">
-        <f>"op mode_"&amp;LEFT(R47,LEN(R47)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROILBTNXX01</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROILBTNXX01</v>
       </c>
       <c r="R47" t="s">
         <v>43</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T47">
@@ -3294,7 +3302,7 @@
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROILINDEA01</v>
       </c>
       <c r="D48">
@@ -3331,18 +3339,18 @@
         <v>0.8</v>
       </c>
       <c r="O48" t="str">
-        <f>"op mode_"&amp;LEFT(R48,LEN(R48)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROILINDEA01</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROILINDEA01</v>
       </c>
       <c r="R48" t="s">
         <v>44</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T48">
@@ -3354,7 +3362,7 @@
     </row>
     <row r="49" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROILINDNE01</v>
       </c>
       <c r="D49">
@@ -3391,18 +3399,18 @@
         <v>0.8</v>
       </c>
       <c r="O49" t="str">
-        <f>"op mode_"&amp;LEFT(R49,LEN(R49)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROILINDNE01</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROILINDNE01</v>
       </c>
       <c r="R49" t="s">
         <v>45</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T49">
@@ -3414,7 +3422,7 @@
     </row>
     <row r="50" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROILINDNO01</v>
       </c>
       <c r="D50">
@@ -3451,18 +3459,18 @@
         <v>0.8</v>
       </c>
       <c r="O50" t="str">
-        <f>"op mode_"&amp;LEFT(R50,LEN(R50)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROILINDNO01</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROILINDNO01</v>
       </c>
       <c r="R50" t="s">
         <v>46</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T50">
@@ -3474,7 +3482,7 @@
     </row>
     <row r="51" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROILINDSO01</v>
       </c>
       <c r="D51">
@@ -3511,18 +3519,18 @@
         <v>0.8</v>
       </c>
       <c r="O51" t="str">
-        <f>"op mode_"&amp;LEFT(R51,LEN(R51)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROILINDSO01</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROILINDSO01</v>
       </c>
       <c r="R51" t="s">
         <v>47</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T51">
@@ -3534,7 +3542,7 @@
     </row>
     <row r="52" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROILINDWE01</v>
       </c>
       <c r="D52">
@@ -3571,18 +3579,18 @@
         <v>0.8</v>
       </c>
       <c r="O52" t="str">
-        <f>"op mode_"&amp;LEFT(R52,LEN(R52)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROILINDWE01</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROILINDWE01</v>
       </c>
       <c r="R52" t="s">
         <v>48</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T52">
@@ -3594,7 +3602,7 @@
     </row>
     <row r="53" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROTHBTNXX01</v>
       </c>
       <c r="D53">
@@ -3631,18 +3639,18 @@
         <v>0.8</v>
       </c>
       <c r="O53" t="str">
-        <f>"op mode_"&amp;LEFT(R53,LEN(R53)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROTHBTNXX01</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROTHBTNXX01</v>
       </c>
       <c r="R53" t="s">
         <v>49</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T53">
@@ -3654,7 +3662,7 @@
     </row>
     <row r="54" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROTHINDEA01</v>
       </c>
       <c r="D54">
@@ -3691,18 +3699,18 @@
         <v>0.8</v>
       </c>
       <c r="O54" t="str">
-        <f>"op mode_"&amp;LEFT(R54,LEN(R54)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROTHINDEA01</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROTHINDEA01</v>
       </c>
       <c r="R54" t="s">
         <v>50</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T54">
@@ -3714,7 +3722,7 @@
     </row>
     <row r="55" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROTHINDNE01</v>
       </c>
       <c r="D55">
@@ -3751,18 +3759,18 @@
         <v>0.8</v>
       </c>
       <c r="O55" t="str">
-        <f>"op mode_"&amp;LEFT(R55,LEN(R55)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROTHINDNE01</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROTHINDNE01</v>
       </c>
       <c r="R55" t="s">
         <v>51</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T55">
@@ -3774,7 +3782,7 @@
     </row>
     <row r="56" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROTHINDNO01</v>
       </c>
       <c r="D56">
@@ -3811,18 +3819,18 @@
         <v>0.8</v>
       </c>
       <c r="O56" t="str">
-        <f>"op mode_"&amp;LEFT(R56,LEN(R56)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROTHINDNO01</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROTHINDNO01</v>
       </c>
       <c r="R56" t="s">
         <v>52</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T56">
@@ -3834,7 +3842,7 @@
     </row>
     <row r="57" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROTHINDSO01</v>
       </c>
       <c r="D57">
@@ -3871,18 +3879,18 @@
         <v>0.8</v>
       </c>
       <c r="O57" t="str">
-        <f>"op mode_"&amp;LEFT(R57,LEN(R57)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROTHINDSO01</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROTHINDSO01</v>
       </c>
       <c r="R57" t="s">
         <v>53</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T57">
@@ -3894,7 +3902,7 @@
     </row>
     <row r="58" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWROTHINDWE01</v>
       </c>
       <c r="D58">
@@ -3931,18 +3939,18 @@
         <v>0.8</v>
       </c>
       <c r="O58" t="str">
-        <f>"op mode_"&amp;LEFT(R58,LEN(R58)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWROTHINDWE01</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWROTHINDWE01</v>
       </c>
       <c r="R58" t="s">
         <v>54</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T58">
@@ -3954,7 +3962,7 @@
     </row>
     <row r="59" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRPETBTNXX01</v>
       </c>
       <c r="D59">
@@ -3991,18 +3999,18 @@
         <v>0.8</v>
       </c>
       <c r="O59" t="str">
-        <f>"op mode_"&amp;LEFT(R59,LEN(R59)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRPETBTNXX01</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRPETBTNXX01</v>
       </c>
       <c r="R59" t="s">
         <v>55</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T59">
@@ -4014,7 +4022,7 @@
     </row>
     <row r="60" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRPETINDEA01</v>
       </c>
       <c r="D60">
@@ -4051,18 +4059,18 @@
         <v>0.8</v>
       </c>
       <c r="O60" t="str">
-        <f>"op mode_"&amp;LEFT(R60,LEN(R60)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRPETINDEA01</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRPETINDEA01</v>
       </c>
       <c r="R60" t="s">
         <v>56</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T60">
@@ -4074,7 +4082,7 @@
     </row>
     <row r="61" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRPETINDNE01</v>
       </c>
       <c r="D61">
@@ -4111,18 +4119,18 @@
         <v>0.8</v>
       </c>
       <c r="O61" t="str">
-        <f>"op mode_"&amp;LEFT(R61,LEN(R61)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRPETINDNE01</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRPETINDNE01</v>
       </c>
       <c r="R61" t="s">
         <v>57</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T61">
@@ -4134,7 +4142,7 @@
     </row>
     <row r="62" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRPETINDNO01</v>
       </c>
       <c r="D62">
@@ -4171,18 +4179,18 @@
         <v>0.8</v>
       </c>
       <c r="O62" t="str">
-        <f>"op mode_"&amp;LEFT(R62,LEN(R62)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRPETINDNO01</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRPETINDNO01</v>
       </c>
       <c r="R62" t="s">
         <v>58</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T62">
@@ -4194,7 +4202,7 @@
     </row>
     <row r="63" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRPETINDSO01</v>
       </c>
       <c r="D63">
@@ -4231,18 +4239,18 @@
         <v>0.8</v>
       </c>
       <c r="O63" t="str">
-        <f>"op mode_"&amp;LEFT(R63,LEN(R63)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRPETINDSO01</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRPETINDSO01</v>
       </c>
       <c r="R63" t="s">
         <v>59</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T63">
@@ -4254,7 +4262,7 @@
     </row>
     <row r="64" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRPETINDWE01</v>
       </c>
       <c r="D64">
@@ -4291,18 +4299,18 @@
         <v>0.8</v>
       </c>
       <c r="O64" t="str">
-        <f>"op mode_"&amp;LEFT(R64,LEN(R64)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRPETINDWE01</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRPETINDWE01</v>
       </c>
       <c r="R64" t="s">
         <v>60</v>
       </c>
       <c r="S64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T64">
@@ -4314,7 +4322,7 @@
     </row>
     <row r="65" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRURNBTNXX01</v>
       </c>
       <c r="D65">
@@ -4351,18 +4359,18 @@
         <v>0.9</v>
       </c>
       <c r="O65" t="str">
-        <f>"op mode_"&amp;LEFT(R65,LEN(R65)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRURNBTNXX01</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRURNBTNXX01</v>
       </c>
       <c r="R65" t="s">
         <v>61</v>
       </c>
       <c r="S65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T65">
@@ -4374,7 +4382,7 @@
     </row>
     <row r="66" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRURNINDEA01</v>
       </c>
       <c r="D66">
@@ -4411,18 +4419,18 @@
         <v>0.9</v>
       </c>
       <c r="O66" t="str">
-        <f>"op mode_"&amp;LEFT(R66,LEN(R66)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRURNINDEA01</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRURNINDEA01</v>
       </c>
       <c r="R66" t="s">
         <v>62</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T66">
@@ -4434,7 +4442,7 @@
     </row>
     <row r="67" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRURNINDNE01</v>
       </c>
       <c r="D67">
@@ -4471,18 +4479,18 @@
         <v>0.9</v>
       </c>
       <c r="O67" t="str">
-        <f>"op mode_"&amp;LEFT(R67,LEN(R67)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRURNINDNE01</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRURNINDNE01</v>
       </c>
       <c r="R67" t="s">
         <v>63</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T67">
@@ -4494,7 +4502,7 @@
     </row>
     <row r="68" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRURNINDNO01</v>
       </c>
       <c r="D68">
@@ -4531,18 +4539,18 @@
         <v>0.9</v>
       </c>
       <c r="O68" t="str">
-        <f>"op mode_"&amp;LEFT(R68,LEN(R68)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRURNINDNO01</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRURNINDNO01</v>
       </c>
       <c r="R68" t="s">
         <v>64</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T68">
@@ -4554,7 +4562,7 @@
     </row>
     <row r="69" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PWRURNINDSO01</v>
       </c>
       <c r="D69">
@@ -4591,18 +4599,18 @@
         <v>0.9</v>
       </c>
       <c r="O69" t="str">
-        <f>"op mode_"&amp;LEFT(R69,LEN(R69)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRURNINDSO01</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>op mode_PWRURNINDSO01</v>
       </c>
       <c r="R69" t="s">
         <v>65</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T69">
@@ -4614,7 +4622,7 @@
     </row>
     <row r="70" spans="3:21" x14ac:dyDescent="0.5">
       <c r="C70" t="str">
-        <f t="shared" ref="C70" si="3">LEFT(R70,LEN(R70)-1)</f>
+        <f t="shared" ref="C70" si="5">LEFT(R70,LEN(R70)-1)</f>
         <v>PWRURNINDWE01</v>
       </c>
       <c r="D70">
@@ -4651,18 +4659,18 @@
         <v>0.9</v>
       </c>
       <c r="O70" t="str">
-        <f>"op mode_"&amp;LEFT(R70,LEN(R70)-1)</f>
+        <f t="shared" si="4"/>
         <v>op mode_PWRURNINDWE01</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" ref="Q70" si="4">O70</f>
+        <f t="shared" ref="Q70" si="6">O70</f>
         <v>op mode_PWRURNINDWE01</v>
       </c>
       <c r="R70" t="s">
         <v>66</v>
       </c>
       <c r="S70" s="1">
-        <f t="shared" ref="S70" si="5">-1/31.536</f>
+        <f t="shared" ref="S70" si="7">-1/31.536</f>
         <v>-3.1709791983764585E-2</v>
       </c>
       <c r="T70">

--- a/SuppXLS/Scen_opmode_UC.xlsx
+++ b/SuppXLS/Scen_opmode_UC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA9368-F2A8-4CE2-B30C-DC6720ACA1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5980AFF-0BD9-4826-9ACB-BEC35BBFB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>process</t>
   </si>
@@ -255,6 +255,21 @@
   </si>
   <si>
     <t>~UC_SETS: R_E : AllRegions</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>NCAP_PKCNT</t>
+  </si>
+  <si>
+    <t>*om2</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -632,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U70"/>
+  <dimension ref="B1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -649,22 +664,26 @@
     <col min="19" max="19" width="7.3125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
         <v>67</v>
       </c>
       <c r="Q3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.5">
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -719,8 +738,17 @@
       <c r="U4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.5">
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C5" t="str">
         <f>LEFT(R5,LEN(R5)-1)</f>
         <v>PWRCCGBTNXX00</v>
@@ -779,8 +807,17 @@
       <c r="U5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.5">
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C6" t="str">
         <f t="shared" ref="C6:C69" si="1">LEFT(R6,LEN(R6)-1)</f>
         <v>PWRCCGBTNXX01</v>
@@ -840,7 +877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C7" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDEA00</v>
@@ -900,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C8" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDEA01</v>
@@ -960,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C9" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDNE00</v>
@@ -1020,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C10" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDNE01</v>
@@ -1080,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C11" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDNO00</v>
@@ -1140,7 +1177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C12" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDNO01</v>
@@ -1200,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C13" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDSO00</v>
@@ -1260,7 +1297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C14" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDSO01</v>
@@ -1320,7 +1357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C15" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDWE00</v>
@@ -1380,7 +1417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.5">
       <c r="C16" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDWE01</v>

--- a/SuppXLS/Scen_opmode_UC.xlsx
+++ b/SuppXLS/Scen_opmode_UC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5980AFF-0BD9-4826-9ACB-BEC35BBFB047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73D9A17-AA5B-4227-ABE1-FD2CB3446A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>process</t>
   </si>
@@ -257,9 +257,6 @@
     <t>~UC_SETS: R_E : AllRegions</t>
   </si>
   <si>
-    <t>~TFM_UPD</t>
-  </si>
-  <si>
     <t>attribute</t>
   </si>
   <si>
@@ -270,6 +267,27 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>ELC*</t>
+  </si>
+  <si>
+    <t>top_check</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>ts_filter</t>
   </si>
 </sst>
 </file>
@@ -647,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Z70"/>
+  <dimension ref="B1:AD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -667,12 +685,12 @@
     <col min="24" max="24" width="11.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
         <v>67</v>
       </c>
@@ -680,10 +698,10 @@
         <v>72</v>
       </c>
       <c r="X3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -739,16 +757,28 @@
         <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
         <v>0</v>
       </c>
       <c r="Z4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.5">
+        <v>77</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C5" t="str">
         <f>LEFT(R5,LEN(R5)-1)</f>
         <v>PWRCCGBTNXX00</v>
@@ -808,16 +838,28 @@
         <v>3</v>
       </c>
       <c r="X5" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" t="s">
-        <v>77</v>
-      </c>
       <c r="Z5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.5">
+      <c r="AA5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC5">
+        <v>2020</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C6" t="str">
         <f t="shared" ref="C6:C69" si="1">LEFT(R6,LEN(R6)-1)</f>
         <v>PWRCCGBTNXX01</v>
@@ -877,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C7" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDEA00</v>
@@ -937,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C8" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDEA01</v>
@@ -997,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C9" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDNE00</v>
@@ -1057,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C10" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDNE01</v>
@@ -1117,7 +1159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C11" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDNO00</v>
@@ -1177,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C12" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDNO01</v>
@@ -1237,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C13" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDSO00</v>
@@ -1297,7 +1339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C14" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDSO01</v>
@@ -1357,7 +1399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C15" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDWE00</v>
@@ -1417,7 +1459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C16" t="str">
         <f t="shared" si="1"/>
         <v>PWRCCGINDWE01</v>

--- a/SuppXLS/Scen_opmode_UC.xlsx
+++ b/SuppXLS/Scen_opmode_UC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73D9A17-AA5B-4227-ABE1-FD2CB3446A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF9C284-B89B-426F-96DF-026E7FBC98DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>process</t>
   </si>
@@ -288,6 +288,33 @@
   </si>
   <si>
     <t>ts_filter</t>
+  </si>
+  <si>
+    <t>~TFM_MIG</t>
+  </si>
+  <si>
+    <t>act_eff</t>
+  </si>
+  <si>
+    <t>pwr*</t>
+  </si>
+  <si>
+    <t>T0*</t>
+  </si>
+  <si>
+    <t>attribute2</t>
+  </si>
+  <si>
+    <t>VDA_FLOP</t>
+  </si>
+  <si>
+    <t>COM_CUMNET</t>
+  </si>
+  <si>
+    <t>limtype2</t>
+  </si>
+  <si>
+    <t>LO</t>
   </si>
 </sst>
 </file>
@@ -668,7 +695,7 @@
   <dimension ref="B1:AD70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1038,6 +1065,9 @@
       <c r="U8">
         <v>3</v>
       </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C9" t="str">
@@ -1098,6 +1128,21 @@
       <c r="U9">
         <v>3</v>
       </c>
+      <c r="X9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C10" t="str">
@@ -1158,6 +1203,18 @@
       <c r="U10">
         <v>3</v>
       </c>
+      <c r="X10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.5">
       <c r="C11" t="str">
@@ -1217,6 +1274,15 @@
       </c>
       <c r="U11">
         <v>3</v>
+      </c>
+      <c r="X11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.5">
